--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>763431.2253370739</v>
+        <v>762825.1377081771</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797173</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>97.48073691315243</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>389.1585143764908</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -825,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -873,10 +873,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.63677140718717</v>
       </c>
       <c r="V4" t="n">
-        <v>193.8659438253731</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5603279520351</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>34.36101244027068</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>13.99728392830417</v>
+        <v>31.28831241118208</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1135,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>126.676888789083</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1147,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>45.10878876340973</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1381,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>298.3543862073033</v>
+        <v>409.0867647799247</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>83.42661545872168</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>92.63218576811033</v>
       </c>
       <c r="U14" t="n">
-        <v>213.7984441674421</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>86.91406253606304</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170481</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>24.34318456170799</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695676</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>110.985505974208</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2295,10 +2295,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>22.56919457453878</v>
+        <v>129.0617197611588</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>13.0131344328856</v>
       </c>
     </row>
     <row r="38">
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>253.2725803580469</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048285</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>94.51826679495657</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.68042330889679</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3954,7 +3954,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>34.21677751456785</v>
       </c>
     </row>
     <row r="44">
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>145.4261460119178</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>29.92029206558524</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4191,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>59.4124420970251</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.97358346682203</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2139.946552541567</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.481161720201</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.571376894645</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>2035.921380153964</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4366,16 +4366,16 @@
         <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W2" t="n">
-        <v>2585.593902066702</v>
+        <v>1830.702594087989</v>
       </c>
       <c r="X2" t="n">
-        <v>2570.491842686417</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2162.205718986071</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4412,22 +4412,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2264.94001130788</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1340.268492507382</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>1306.166423731209</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.590334890769</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>770.8155900490646</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4573,22 +4573,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1785.915842032517</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.773378611828</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.527658951885</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
         <v>447.554615037751</v>
@@ -4722,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4737,7 +4737,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2634.504334502149</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>1476.683845818179</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194209</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X8" t="n">
-        <v>2623.681342788512</v>
+        <v>1907.229135963029</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.395219088166</v>
+        <v>1902.983416303087</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4895,13 +4895,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,37 +5029,37 @@
         <v>796.5359975716538</v>
       </c>
       <c r="F11" t="n">
-        <v>495.1679306955898</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.631590390881</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>4185.038459369553</v>
       </c>
       <c r="Q11" t="n">
         <v>4519.350901189626</v>
@@ -5120,22 +5120,22 @@
         <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>444.3920974455236</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K12" t="n">
-        <v>444.3920974455236</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="L12" t="n">
-        <v>444.3920974455236</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="M12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1371025824221</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F13" t="n">
-        <v>182.4300485441783</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
         <v>93.77009931885365</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2231.279152143079</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C14" t="n">
-        <v>1793.136679326502</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D14" t="n">
-        <v>1357.226894500947</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E14" t="n">
-        <v>923.452149659242</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684498</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717716</v>
+        <v>181.3324497194622</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.37507872995</v>
+        <v>181.3324497194622</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.435044982809</v>
+        <v>1256.392415972321</v>
       </c>
       <c r="M14" t="n">
-        <v>2438.435044982809</v>
+        <v>2413.440251182872</v>
       </c>
       <c r="N14" t="n">
-        <v>2438.435044982809</v>
+        <v>3539.171234619319</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="Q14" t="n">
         <v>4519.350901189626</v>
@@ -5305,25 +5305,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>4468.437738815721</v>
+        <v>4511.285227714287</v>
       </c>
       <c r="U14" t="n">
-        <v>4252.479714404163</v>
+        <v>4252.062925031303</v>
       </c>
       <c r="V14" t="n">
-        <v>3889.86276433799</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W14" t="n">
-        <v>3485.007309749023</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.864846328333</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y14" t="n">
-        <v>2657.578722627987</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>743.2082509793607</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1264.115263924722</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797662</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2639367364659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>630.7022252196908</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>464.8242324212135</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>295.0662286719508</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>118.359174633707</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885365</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885365</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2026.87589335121</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1739.920385221641</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="W16" t="n">
-        <v>1467.893980807932</v>
+        <v>1733.431667642874</v>
       </c>
       <c r="X16" t="n">
-        <v>1222.502226141345</v>
+        <v>1488.039912976286</v>
       </c>
       <c r="Y16" t="n">
-        <v>995.0825554554531</v>
+        <v>1260.620242290395</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883951</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>639.19296617162</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>303.55696962388</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856362</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,28 +6065,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6305,28 +6305,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D31" t="n">
         <v>754.2193473420839</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4977.20847509607</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7140,7 +7140,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,22 +7177,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7365,19 +7365,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1779.535745052583</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1507.509340638875</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1262.117585972288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2188.014873871653</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>1749.872401055076</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1313.962616229521</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>880.1878713878159</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
         <v>784.7148746252335</v>
@@ -7405,58 +7405,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171362</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>350.4865144725186</v>
       </c>
       <c r="L41" t="n">
-        <v>2003.180357529891</v>
+        <v>1425.546480725378</v>
       </c>
       <c r="M41" t="n">
-        <v>3160.228192740442</v>
+        <v>2582.594315935929</v>
       </c>
       <c r="N41" t="n">
-        <v>4285.959176176888</v>
+        <v>3708.325299372376</v>
       </c>
       <c r="O41" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="P41" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942681</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.43773881572</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>4209.215436132737</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>3846.598486066563</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>3441.743031477597</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>3022.600568056907</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>2614.314444356561</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7481,31 +7481,31 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
         <v>1099.098144071247</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>996.1212058924912</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>823.5594943757161</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154826</v>
+        <v>657.6815015772388</v>
       </c>
       <c r="E43" t="n">
-        <v>664.6305518662199</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="F43" t="n">
         <v>487.9234978279761</v>
@@ -7566,7 +7566,7 @@
         <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7602,19 +7602,19 @@
         <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2305.308894098105</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.353385968536</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1746.326981554827</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1500.93522688824</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.515556202348</v>
+        <v>1187.939824611478</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171362</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
         <v>2438.435044982809</v>
@@ -7663,25 +7663,25 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.69630515069</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984087</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4688.504965942681</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>4541.609868960946</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
         <v>4178.992918894773</v>
@@ -7718,34 +7718,34 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="P45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="Q45" t="n">
         <v>1639.837082703323</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="C46" t="n">
         <v>1000.26654841396</v>
@@ -7803,7 +7803,7 @@
         <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7839,19 +7839,19 @@
         <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2223.878505028704</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1936.922996899135</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1664.896592485426</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.084404846717</v>
+        <v>1419.504837818839</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.828259930735</v>
+        <v>1192.085167132947</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>469.6822035600076</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8455,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>514.7543470900101</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8710,7 +8710,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>337.6893351717899</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>989.1559309009455</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>88.44681858647326</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>713.2395913281071</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>379.5169886652536</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9658,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>274.8417277288609</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>137.205594386779</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10600,7 +10600,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>259.3095102562272</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11074,7 +11074,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>406.6119088543364</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.1022829978601</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>125.2343690875811</v>
+        <v>14.50199051495957</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>125.2343690875814</v>
       </c>
       <c r="U14" t="n">
-        <v>42.83163548871113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>52.94985625022261</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>141.6500182959537</v>
+        <v>35.15749310933373</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>212.1323395461472</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>30.81337269022694</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>329.0704884999278</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.22000922290044</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>190.928696464465</v>
       </c>
     </row>
     <row r="44">
@@ -25918,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>111.2039336442355</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>329.0704884999265</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>216.2362286424006</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>645369.9449372663</v>
+        <v>645369.9449372662</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673882.8883853339</v>
+        <v>673882.8883853341</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673882.8883853339</v>
+        <v>673882.8883853341</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673882.8883853339</v>
+        <v>673882.8883853341</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673882.8883853339</v>
+        <v>673882.8883853341</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673882.8883853339</v>
+        <v>673882.8883853341</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673882.8883853339</v>
+        <v>673882.8883853341</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631947.4559404935</v>
+        <v>631947.4559404936</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260256</v>
       </c>
       <c r="C2" t="n">
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260258</v>
       </c>
       <c r="E2" t="n">
         <v>333498.2429172707</v>
@@ -26328,7 +26328,7 @@
         <v>333498.2429172707</v>
       </c>
       <c r="G2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
         <v>355628.8692927128</v>
@@ -26340,13 +26340,13 @@
         <v>355628.8692927128</v>
       </c>
       <c r="K2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="L2" t="n">
         <v>355628.8692927128</v>
       </c>
       <c r="M2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
         <v>355628.8692927128</v>
@@ -26355,7 +26355,7 @@
         <v>333498.2429172707</v>
       </c>
       <c r="P2" t="n">
-        <v>333498.2429172706</v>
+        <v>333498.2429172707</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
+        <v>101576.7793125117</v>
+      </c>
+      <c r="F4" t="n">
         <v>101576.7793125116</v>
-      </c>
-      <c r="F4" t="n">
-        <v>101576.7793125117</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>71265.27548232877</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-118528.7644931046</v>
       </c>
       <c r="C6" t="n">
-        <v>105170.9340909403</v>
+        <v>105170.9340909404</v>
       </c>
       <c r="D6" t="n">
-        <v>105170.9340909403</v>
+        <v>105170.9340909404</v>
       </c>
       <c r="E6" t="n">
-        <v>9990.43455068249</v>
+        <v>9885.244928427755</v>
       </c>
       <c r="F6" t="n">
-        <v>160656.1881224303</v>
+        <v>160550.9985001757</v>
       </c>
       <c r="G6" t="n">
-        <v>140503.5036858495</v>
+        <v>140480.2793464668</v>
       </c>
       <c r="H6" t="n">
-        <v>169593.3128584573</v>
+        <v>169570.0885190748</v>
       </c>
       <c r="I6" t="n">
-        <v>169593.3128584573</v>
+        <v>169570.0885190747</v>
       </c>
       <c r="J6" t="n">
-        <v>-5058.035859248819</v>
+        <v>-5081.260198631416</v>
       </c>
       <c r="K6" t="n">
-        <v>169593.3128584573</v>
+        <v>169570.0885190746</v>
       </c>
       <c r="L6" t="n">
-        <v>169593.3128584573</v>
+        <v>169570.0885190747</v>
       </c>
       <c r="M6" t="n">
-        <v>43842.22452276666</v>
+        <v>43819.00018338403</v>
       </c>
       <c r="N6" t="n">
-        <v>169593.3128584574</v>
+        <v>169570.0885190747</v>
       </c>
       <c r="O6" t="n">
-        <v>160656.1881224303</v>
+        <v>160550.9985001757</v>
       </c>
       <c r="P6" t="n">
-        <v>160656.1881224303</v>
+        <v>160550.9985001757</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778135</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778135</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778135</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>336.2803111752585</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27438,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>11.64838566658625</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>219.0118993322386</v>
       </c>
       <c r="V4" t="n">
-        <v>90.2200092229007</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>330.9903590252648</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>369.8422500230724</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>229.4233680290251</v>
+        <v>212.1323395461472</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>307.0841592993279</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="X8" t="n">
-        <v>369.8422500230727</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28784,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>469.6822035600076</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>514.7543470900101</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35430,7 +35430,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>337.6893351717899</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35488,7 +35488,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>989.1559309009455</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>88.44681858647326</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>713.2395913281071</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638365</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>379.5169886652536</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36378,10 +36378,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>274.8417277288609</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37089,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>137.205594386779</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,13 +37317,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37563,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>259.3095102562272</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>406.6119088543364</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,7 +38019,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.1022829978601</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
